--- a/data/pca/factorExposure/factorExposure_2012-09-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-09-25.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001262328248358775</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.00186174838978159</v>
+      </c>
+      <c r="C2">
+        <v>0.02816547787423614</v>
+      </c>
+      <c r="D2">
+        <v>0.005443057903931712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001026542385747373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.007132299876357091</v>
+      </c>
+      <c r="C4">
+        <v>0.08312761615607986</v>
+      </c>
+      <c r="D4">
+        <v>0.07088333960203938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.002647184731377873</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01462116347069819</v>
+      </c>
+      <c r="C6">
+        <v>0.1144956513977747</v>
+      </c>
+      <c r="D6">
+        <v>0.02558299625108363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0007866749074332936</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005148696376347563</v>
+      </c>
+      <c r="C7">
+        <v>0.05813234866839532</v>
+      </c>
+      <c r="D7">
+        <v>0.03404150544828401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001048485474568721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005967662147232017</v>
+      </c>
+      <c r="C8">
+        <v>0.0356695496568105</v>
+      </c>
+      <c r="D8">
+        <v>0.03974102282514828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0006443727954458294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005233716891318873</v>
+      </c>
+      <c r="C9">
+        <v>0.07062675381929837</v>
+      </c>
+      <c r="D9">
+        <v>0.07630326655686039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002618910249709459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005386002943300177</v>
+      </c>
+      <c r="C10">
+        <v>0.05543987654670504</v>
+      </c>
+      <c r="D10">
+        <v>-0.1930924068972415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.001454896581112526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005754034315446343</v>
+      </c>
+      <c r="C11">
+        <v>0.07877382616467622</v>
+      </c>
+      <c r="D11">
+        <v>0.06655380686248065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0003506976429767621</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004385198664099577</v>
+      </c>
+      <c r="C12">
+        <v>0.06390875632504582</v>
+      </c>
+      <c r="D12">
+        <v>0.05256940431444633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003838615319700742</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008414208921980871</v>
+      </c>
+      <c r="C13">
+        <v>0.06709779626743191</v>
+      </c>
+      <c r="D13">
+        <v>0.06211991609427309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001550799146453694</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0008077372662973808</v>
+      </c>
+      <c r="C14">
+        <v>0.04189690605599214</v>
+      </c>
+      <c r="D14">
+        <v>0.01317334041284281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.000321472244560808</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005919771750703817</v>
+      </c>
+      <c r="C15">
+        <v>0.03997139123285463</v>
+      </c>
+      <c r="D15">
+        <v>0.03066203744955892</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.000297572248693365</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005153186521799938</v>
+      </c>
+      <c r="C16">
+        <v>0.06383094833058214</v>
+      </c>
+      <c r="D16">
+        <v>0.05891634736991957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002116956850213564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008785722315507507</v>
+      </c>
+      <c r="C20">
+        <v>0.06295429223211939</v>
+      </c>
+      <c r="D20">
+        <v>0.05238120729696173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006473343874602507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009282720364222291</v>
+      </c>
+      <c r="C21">
+        <v>0.01864008234107774</v>
+      </c>
+      <c r="D21">
+        <v>0.04342349402125619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01923930308202485</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007099262453035208</v>
+      </c>
+      <c r="C22">
+        <v>0.086376021208165</v>
+      </c>
+      <c r="D22">
+        <v>0.1253511660735565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01890757265733082</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006811760224752064</v>
+      </c>
+      <c r="C23">
+        <v>0.08674347287104961</v>
+      </c>
+      <c r="D23">
+        <v>0.1264977386130107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001198257116627249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005614422592205906</v>
+      </c>
+      <c r="C24">
+        <v>0.07542941004970233</v>
+      </c>
+      <c r="D24">
+        <v>0.06942208090954284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.002968988081454172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003214371587357128</v>
+      </c>
+      <c r="C25">
+        <v>0.07715958040865926</v>
+      </c>
+      <c r="D25">
+        <v>0.06817913511107601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.002963010410038496</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003644103277624803</v>
+      </c>
+      <c r="C26">
+        <v>0.03843539256485535</v>
+      </c>
+      <c r="D26">
+        <v>0.02574460706830243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005795127730696502</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001431100196749609</v>
+      </c>
+      <c r="C28">
+        <v>0.1048478633947227</v>
+      </c>
+      <c r="D28">
+        <v>-0.3224897911494188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0001089652723487058</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002715795232176094</v>
+      </c>
+      <c r="C29">
+        <v>0.0481143382159104</v>
+      </c>
+      <c r="D29">
+        <v>0.01186855171028373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002975851107237996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009887485153631401</v>
+      </c>
+      <c r="C30">
+        <v>0.1412427228422042</v>
+      </c>
+      <c r="D30">
+        <v>0.1100700976643502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002432210630185317</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.00634166837807317</v>
+      </c>
+      <c r="C31">
+        <v>0.04299044082445791</v>
+      </c>
+      <c r="D31">
+        <v>0.03363333708693757</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.002045067965908735</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003641077850403613</v>
+      </c>
+      <c r="C32">
+        <v>0.03998609382943245</v>
+      </c>
+      <c r="D32">
+        <v>0.02348053397750796</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.000335579912286242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009147813868824121</v>
+      </c>
+      <c r="C33">
+        <v>0.0882611431245995</v>
+      </c>
+      <c r="D33">
+        <v>0.06677441424224026</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.002297556192325227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004299692012509961</v>
+      </c>
+      <c r="C34">
+        <v>0.05740893159024769</v>
+      </c>
+      <c r="D34">
+        <v>0.05919235610205885</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001557677679401316</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005365559647197466</v>
+      </c>
+      <c r="C35">
+        <v>0.03997326668905438</v>
+      </c>
+      <c r="D35">
+        <v>0.02187444169716168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.005205334858023888</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001544024035335861</v>
+      </c>
+      <c r="C36">
+        <v>0.02387828718193039</v>
+      </c>
+      <c r="D36">
+        <v>0.02800150795973452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001705541446878426</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009175598455240717</v>
+      </c>
+      <c r="C38">
+        <v>0.038784828336139</v>
+      </c>
+      <c r="D38">
+        <v>0.01467278653859855</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01060781748300245</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.00118821199857826</v>
+      </c>
+      <c r="C39">
+        <v>0.1128216129233569</v>
+      </c>
+      <c r="D39">
+        <v>0.07845583144710264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.005420261855265032</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.00390132880773572</v>
+      </c>
+      <c r="C40">
+        <v>0.09067130960431974</v>
+      </c>
+      <c r="D40">
+        <v>0.01728301298473126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0008188412184274845</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007283292600355339</v>
+      </c>
+      <c r="C41">
+        <v>0.03886946576638844</v>
+      </c>
+      <c r="D41">
+        <v>0.04062439998669617</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002207886642619639</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003878177480381428</v>
+      </c>
+      <c r="C43">
+        <v>0.05256227144738818</v>
+      </c>
+      <c r="D43">
+        <v>0.02915393354198542</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01047280040109939</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002580901431157518</v>
+      </c>
+      <c r="C44">
+        <v>0.1033249499054845</v>
+      </c>
+      <c r="D44">
+        <v>0.06923545827201769</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0006163911223339286</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001547707554531879</v>
+      </c>
+      <c r="C46">
+        <v>0.03249870548802375</v>
+      </c>
+      <c r="D46">
+        <v>0.03590714912412584</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0005685598548424019</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.00225192806286737</v>
+      </c>
+      <c r="C47">
+        <v>0.03494943781087741</v>
+      </c>
+      <c r="D47">
+        <v>0.02328689321869414</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003654203239324553</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006616055824747991</v>
+      </c>
+      <c r="C48">
+        <v>0.02969570057116667</v>
+      </c>
+      <c r="D48">
+        <v>0.03797373779578774</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.0001532845379997975</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01796508168784047</v>
+      </c>
+      <c r="C49">
+        <v>0.1904790110851954</v>
+      </c>
+      <c r="D49">
+        <v>0.006152493346620718</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0002515961425785652</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003563238541198624</v>
+      </c>
+      <c r="C50">
+        <v>0.04195539131295835</v>
+      </c>
+      <c r="D50">
+        <v>0.04079325472192306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.000181342189934664</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004723437380808874</v>
+      </c>
+      <c r="C51">
+        <v>0.02641501880131612</v>
+      </c>
+      <c r="D51">
+        <v>0.02247370126779047</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.006200378738509348</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02155061115910209</v>
+      </c>
+      <c r="C53">
+        <v>0.1709404099846824</v>
+      </c>
+      <c r="D53">
+        <v>0.02214710416751235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003495793161128257</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009225243380758436</v>
+      </c>
+      <c r="C54">
+        <v>0.05436475538501451</v>
+      </c>
+      <c r="D54">
+        <v>0.04475450429350776</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>2.173459052148445e-06</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.00981756387353643</v>
+      </c>
+      <c r="C55">
+        <v>0.107561195389691</v>
+      </c>
+      <c r="D55">
+        <v>0.03912078930826448</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.007811241409511573</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.0207612134038801</v>
+      </c>
+      <c r="C56">
+        <v>0.1749041507421752</v>
+      </c>
+      <c r="D56">
+        <v>0.01447255151643938</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.0009147951922426881</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01927420441396307</v>
+      </c>
+      <c r="C58">
+        <v>0.1037224457687505</v>
+      </c>
+      <c r="D58">
+        <v>0.07353811022848369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.004139262273172349</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01046661094188841</v>
+      </c>
+      <c r="C59">
+        <v>0.1693688595348074</v>
+      </c>
+      <c r="D59">
+        <v>-0.3413452959580126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.002877580959699878</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02529164968741212</v>
+      </c>
+      <c r="C60">
+        <v>0.2269494079797029</v>
+      </c>
+      <c r="D60">
+        <v>0.01701616078654063</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.009788464846473903</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001720684239807149</v>
+      </c>
+      <c r="C61">
+        <v>0.09415517584585083</v>
+      </c>
+      <c r="D61">
+        <v>0.05852668925980591</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1542852657146624</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1497424015890345</v>
+      </c>
+      <c r="C62">
+        <v>0.09803569612939605</v>
+      </c>
+      <c r="D62">
+        <v>0.02227840202038505</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0004174554800331915</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006491786476316961</v>
+      </c>
+      <c r="C63">
+        <v>0.05236488679094763</v>
+      </c>
+      <c r="D63">
+        <v>0.03559241541034639</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.005729277508261116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01590340779141909</v>
+      </c>
+      <c r="C64">
+        <v>0.1049216450470507</v>
+      </c>
+      <c r="D64">
+        <v>0.05619736743270971</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.005277414209339193</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01773933107348297</v>
+      </c>
+      <c r="C65">
+        <v>0.1207675110668022</v>
+      </c>
+      <c r="D65">
+        <v>0.02980376696323912</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.00142523307511224</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.0135091746580263</v>
+      </c>
+      <c r="C66">
+        <v>0.1609619942003069</v>
+      </c>
+      <c r="D66">
+        <v>0.1101780943713687</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.004476513899707989</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01565027126522099</v>
+      </c>
+      <c r="C67">
+        <v>0.07109950014400539</v>
+      </c>
+      <c r="D67">
+        <v>0.02502132067372284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.003997106693945961</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.00118676889856456</v>
+      </c>
+      <c r="C68">
+        <v>0.08711851281221339</v>
+      </c>
+      <c r="D68">
+        <v>-0.2564866367213613</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0002697917785407401</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006669992086619326</v>
+      </c>
+      <c r="C69">
+        <v>0.05255951844091893</v>
+      </c>
+      <c r="D69">
+        <v>0.03776873559941578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001328501556678304</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002298617936687995</v>
+      </c>
+      <c r="C70">
+        <v>0.007008824564520142</v>
+      </c>
+      <c r="D70">
+        <v>0.001421686284879605</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0008849437856369468</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005789570752843125</v>
+      </c>
+      <c r="C71">
+        <v>0.09173474860792784</v>
+      </c>
+      <c r="D71">
+        <v>-0.300483165552129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.0003486133614253369</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01710925963706848</v>
+      </c>
+      <c r="C72">
+        <v>0.1564797853824331</v>
+      </c>
+      <c r="D72">
+        <v>0.01033890398068003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.0006387978230610981</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03188656944838224</v>
+      </c>
+      <c r="C73">
+        <v>0.2825215553826974</v>
+      </c>
+      <c r="D73">
+        <v>0.05316240707141839</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004633825130071254</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002098905651329976</v>
+      </c>
+      <c r="C74">
+        <v>0.1023305862613199</v>
+      </c>
+      <c r="D74">
+        <v>0.03580159379152793</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.001763423277939841</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01103352716976531</v>
+      </c>
+      <c r="C75">
+        <v>0.1213163519771738</v>
+      </c>
+      <c r="D75">
+        <v>0.02559428640841268</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01213784469063574</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.0225462164643392</v>
+      </c>
+      <c r="C76">
+        <v>0.1468769075871172</v>
+      </c>
+      <c r="D76">
+        <v>0.05798855921085574</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.00183111492363171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.020917200220198</v>
+      </c>
+      <c r="C77">
+        <v>0.1131946153125845</v>
+      </c>
+      <c r="D77">
+        <v>0.05733478364882899</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.003615304256500087</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01477468561574239</v>
+      </c>
+      <c r="C78">
+        <v>0.09641458846768332</v>
+      </c>
+      <c r="D78">
+        <v>0.08279774240485241</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02527853028026035</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03866112072609297</v>
+      </c>
+      <c r="C79">
+        <v>0.1557099493717592</v>
+      </c>
+      <c r="D79">
+        <v>0.03370507577122162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006518517823758971</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01003041046920827</v>
+      </c>
+      <c r="C80">
+        <v>0.03849097648133169</v>
+      </c>
+      <c r="D80">
+        <v>0.02988177870200047</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.004835458932015252</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01608730738265947</v>
+      </c>
+      <c r="C81">
+        <v>0.1291628713391472</v>
+      </c>
+      <c r="D81">
+        <v>0.03801623757436592</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007269247333160109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02001929345968493</v>
+      </c>
+      <c r="C82">
+        <v>0.1388739081236678</v>
+      </c>
+      <c r="D82">
+        <v>0.03784662892763518</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.0004569179597884014</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01212065596664181</v>
+      </c>
+      <c r="C83">
+        <v>0.06236175778364218</v>
+      </c>
+      <c r="D83">
+        <v>0.04344981148497117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01093282634829108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01247862038854638</v>
+      </c>
+      <c r="C84">
+        <v>0.03811092474649123</v>
+      </c>
+      <c r="D84">
+        <v>-0.003352618885606486</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01699712248993058</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02933818329557072</v>
+      </c>
+      <c r="C85">
+        <v>0.1237701266015463</v>
+      </c>
+      <c r="D85">
+        <v>0.03776092537172741</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002487444796521342</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004582870471056775</v>
+      </c>
+      <c r="C86">
+        <v>0.04983827920047419</v>
+      </c>
+      <c r="D86">
+        <v>0.02906356269221858</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.001734320352806605</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01151563596889144</v>
+      </c>
+      <c r="C87">
+        <v>0.1267884028701615</v>
+      </c>
+      <c r="D87">
+        <v>0.07740880242233937</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.00913286771713076</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002812681528954435</v>
+      </c>
+      <c r="C88">
+        <v>0.06346887239730234</v>
+      </c>
+      <c r="D88">
+        <v>0.02704412250402012</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.009001753787564674</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001595232322899418</v>
+      </c>
+      <c r="C89">
+        <v>0.1397431814332152</v>
+      </c>
+      <c r="D89">
+        <v>-0.3163657909878671</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001784215708193597</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006807544381717007</v>
+      </c>
+      <c r="C90">
+        <v>0.1210001735073654</v>
+      </c>
+      <c r="D90">
+        <v>-0.3121130751448533</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0007686313250156474</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01068761818352746</v>
+      </c>
+      <c r="C91">
+        <v>0.09905056452506533</v>
+      </c>
+      <c r="D91">
+        <v>0.02452232427996761</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.006862364556785129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0006490353148128822</v>
+      </c>
+      <c r="C92">
+        <v>0.134514219297233</v>
+      </c>
+      <c r="D92">
+        <v>-0.3228826522323441</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0008985677431154611</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004251911778587637</v>
+      </c>
+      <c r="C93">
+        <v>0.1053263372466373</v>
+      </c>
+      <c r="D93">
+        <v>-0.2971767940363296</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.006118915764167528</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02213072287696432</v>
+      </c>
+      <c r="C94">
+        <v>0.1420716625096625</v>
+      </c>
+      <c r="D94">
+        <v>0.05321003841791225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.0008360253379842568</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01662383931863713</v>
+      </c>
+      <c r="C95">
+        <v>0.1208113847718957</v>
+      </c>
+      <c r="D95">
+        <v>0.06620891478706251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01039551541415441</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03703054088207129</v>
+      </c>
+      <c r="C97">
+        <v>0.2262113623251922</v>
+      </c>
+      <c r="D97">
+        <v>0.002288176813122098</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.007925761266222589</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03852050874976372</v>
+      </c>
+      <c r="C98">
+        <v>0.2576657400950022</v>
+      </c>
+      <c r="D98">
+        <v>0.03148370641156742</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9863459230231936</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9810702763182342</v>
+      </c>
+      <c r="C99">
+        <v>-0.1214058724732278</v>
+      </c>
+      <c r="D99">
+        <v>-0.02385826165647674</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-4.121246991258465e-05</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002757702266175585</v>
+      </c>
+      <c r="C101">
+        <v>0.048241810384687</v>
+      </c>
+      <c r="D101">
+        <v>0.01224409672632712</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
